--- a/plantillas/Anexo Informe Revision Accesibilidad - Sitios web.xlsx
+++ b/plantillas/Anexo Informe Revision Accesibilidad - Sitios web.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoseR\Mi unidad\curso2021-2022\accesibilidad Castellon\Modelos para informes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\accesibilidad\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7A3403-F584-44BD-B2D3-2F5C4ED9CC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313ECF69-6A7A-4CEA-A516-D6B6E2FE304A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Procesos" sheetId="45" r:id="rId1"/>
     <sheet name="Comentarios" sheetId="48" r:id="rId2"/>
     <sheet name="Declaración" sheetId="47" r:id="rId3"/>
+    <sheet name="Informe Errores" sheetId="50" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Comentarios!$A$1:$I$138</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Informe Errores'!$A$1:$E$138</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Procesos!$A$1:$C$14</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -130,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="168">
   <si>
     <t>5.2 Activación de características de accesibilidad</t>
   </si>
@@ -636,6 +638,15 @@
   </si>
   <si>
     <t>Núm. Requisito en Tabla A.1 de la norma</t>
+  </si>
+  <si>
+    <t>Localización del problema (página/s de la muestra)</t>
+  </si>
+  <si>
+    <t>Propuesta de solución</t>
+  </si>
+  <si>
+    <t>Descripción del problema (opcional: capturas de pantalla)</t>
   </si>
 </sst>
 </file>
@@ -1073,7 +1084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
@@ -1287,7 +1298,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I138"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -3488,4 +3499,1558 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D63651-BC04-43FA-961F-83A5E02B4F57}">
+  <dimension ref="A1:E138"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="38.44140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.5546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+    </row>
+    <row r="4" spans="1:5" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+    </row>
+    <row r="5" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+    </row>
+    <row r="6" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>7</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" spans="1:5" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>8</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+    </row>
+    <row r="10" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>9</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>10</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
+        <v>11</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <v>13</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
+        <v>14</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+    </row>
+    <row r="16" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
+        <v>15</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+    </row>
+    <row r="17" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
+        <v>16</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+    </row>
+    <row r="18" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
+        <v>17</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
+        <v>18</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+    </row>
+    <row r="20" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
+        <v>19</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+    </row>
+    <row r="21" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
+        <v>20</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+    </row>
+    <row r="22" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A22" s="14">
+        <v>21</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+    </row>
+    <row r="23" spans="1:5" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A23" s="14">
+        <v>22</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+    </row>
+    <row r="24" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A24" s="14">
+        <v>23</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+    </row>
+    <row r="25" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A25" s="14">
+        <v>24</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+    </row>
+    <row r="26" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A26" s="14">
+        <v>25</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+    </row>
+    <row r="27" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A27" s="14">
+        <v>26</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="14">
+        <v>27</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+    </row>
+    <row r="29" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A29" s="14">
+        <v>28</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="16"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+    </row>
+    <row r="30" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A30" s="14">
+        <v>29</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="16"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+    </row>
+    <row r="31" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A31" s="14">
+        <v>30</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="16"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+    </row>
+    <row r="32" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A32" s="14">
+        <v>31</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="16"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+    </row>
+    <row r="33" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A33" s="14">
+        <v>32</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="16"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+    </row>
+    <row r="34" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A34" s="14">
+        <v>33</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" s="16"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+    </row>
+    <row r="35" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A35" s="14">
+        <v>34</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" s="16"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+    </row>
+    <row r="36" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A36" s="14">
+        <v>35</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" s="16"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+    </row>
+    <row r="37" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A37" s="14">
+        <v>36</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" s="16"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+    </row>
+    <row r="38" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A38" s="14">
+        <v>37</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" s="16"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+    </row>
+    <row r="39" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A39" s="14">
+        <v>38</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C39" s="16"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+    </row>
+    <row r="40" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A40" s="14">
+        <v>39</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" s="16"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="14">
+        <v>40</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41" s="16"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+    </row>
+    <row r="42" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A42" s="14">
+        <v>41</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" s="16"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="14">
+        <v>42</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="16"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="14">
+        <v>43</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" s="16"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+    </row>
+    <row r="45" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A45" s="14">
+        <v>44</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C45" s="16"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+    </row>
+    <row r="46" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A46" s="14">
+        <v>45</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C46" s="16"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+    </row>
+    <row r="47" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A47" s="14">
+        <v>46</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C47" s="16"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+    </row>
+    <row r="48" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A48" s="14">
+        <v>47</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" s="16"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+    </row>
+    <row r="49" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A49" s="14">
+        <v>48</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" s="16"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+    </row>
+    <row r="50" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A50" s="14">
+        <v>49</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" s="16"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+    </row>
+    <row r="51" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A51" s="14">
+        <v>50</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C51" s="16"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="14">
+        <v>51</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C52" s="16"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+    </row>
+    <row r="53" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A53" s="14">
+        <v>52</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C53" s="16"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="14">
+        <v>53</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="16"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="14">
+        <v>54</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C55" s="16"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+    </row>
+    <row r="56" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A56" s="14">
+        <v>55</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C56" s="16"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+    </row>
+    <row r="57" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A57" s="14">
+        <v>56</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C57" s="16"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="14">
+        <v>57</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C58" s="16"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+    </row>
+    <row r="59" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A59" s="14">
+        <v>58</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" s="16"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="14">
+        <v>59</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" s="16"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+    </row>
+    <row r="61" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A61" s="14">
+        <v>60</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C61" s="16"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="14">
+        <v>61</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C62" s="16"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+    </row>
+    <row r="63" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A63" s="14">
+        <v>62</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C63" s="16"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="14">
+        <v>63</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C64" s="16"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+    </row>
+    <row r="65" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A65" s="14">
+        <v>64</v>
+      </c>
+      <c r="B65" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C65" s="16"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+    </row>
+    <row r="66" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A66" s="14">
+        <v>65</v>
+      </c>
+      <c r="B66" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C66" s="16"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+    </row>
+    <row r="67" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A67" s="14">
+        <v>66</v>
+      </c>
+      <c r="B67" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C67" s="16"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+    </row>
+    <row r="68" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A68" s="14">
+        <v>67</v>
+      </c>
+      <c r="B68" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C68" s="16"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+    </row>
+    <row r="69" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A69" s="14">
+        <v>68</v>
+      </c>
+      <c r="B69" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C69" s="16"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+    </row>
+    <row r="70" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A70" s="14">
+        <v>69</v>
+      </c>
+      <c r="B70" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C70" s="16"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="14">
+        <v>70</v>
+      </c>
+      <c r="B71" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C71" s="16"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+    </row>
+    <row r="72" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A72" s="14">
+        <v>71</v>
+      </c>
+      <c r="B72" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C72" s="16"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+    </row>
+    <row r="73" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A73" s="14">
+        <v>72</v>
+      </c>
+      <c r="B73" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C73" s="16"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+    </row>
+    <row r="74" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A74" s="14">
+        <v>73</v>
+      </c>
+      <c r="B74" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C74" s="16"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+    </row>
+    <row r="75" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A75" s="14">
+        <v>74</v>
+      </c>
+      <c r="B75" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C75" s="16"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+    </row>
+    <row r="76" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A76" s="14">
+        <v>75</v>
+      </c>
+      <c r="B76" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C76" s="16"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+    </row>
+    <row r="77" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A77" s="14">
+        <v>76</v>
+      </c>
+      <c r="B77" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C77" s="16"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+    </row>
+    <row r="78" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A78" s="14">
+        <v>77</v>
+      </c>
+      <c r="B78" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C78" s="16"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="14">
+        <v>78</v>
+      </c>
+      <c r="B79" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C79" s="16"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+    </row>
+    <row r="80" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A80" s="14">
+        <v>79</v>
+      </c>
+      <c r="B80" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C80" s="16"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+    </row>
+    <row r="81" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A81" s="14">
+        <v>80</v>
+      </c>
+      <c r="B81" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C81" s="16"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+    </row>
+    <row r="82" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A82" s="14">
+        <v>81</v>
+      </c>
+      <c r="B82" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C82" s="16"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+    </row>
+    <row r="83" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A83" s="14">
+        <v>82</v>
+      </c>
+      <c r="B83" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C83" s="16"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="17"/>
+    </row>
+    <row r="84" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A84" s="14">
+        <v>83</v>
+      </c>
+      <c r="B84" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C84" s="16"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+    </row>
+    <row r="85" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A85" s="14">
+        <v>84</v>
+      </c>
+      <c r="B85" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C85" s="16"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="17"/>
+    </row>
+    <row r="86" spans="1:5" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A86" s="14">
+        <v>85</v>
+      </c>
+      <c r="B86" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C86" s="16"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+    </row>
+    <row r="87" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A87" s="14">
+        <v>86</v>
+      </c>
+      <c r="B87" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C87" s="16"/>
+      <c r="D87" s="17"/>
+      <c r="E87" s="17"/>
+    </row>
+    <row r="88" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A88" s="14">
+        <v>87</v>
+      </c>
+      <c r="B88" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C88" s="16"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
+    </row>
+    <row r="89" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A89" s="14">
+        <v>88</v>
+      </c>
+      <c r="B89" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C89" s="16"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="17"/>
+    </row>
+    <row r="90" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A90" s="14">
+        <v>89</v>
+      </c>
+      <c r="B90" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C90" s="16"/>
+      <c r="D90" s="17"/>
+      <c r="E90" s="17"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="14">
+        <v>90</v>
+      </c>
+      <c r="B91" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C91" s="16"/>
+      <c r="D91" s="17"/>
+      <c r="E91" s="17"/>
+    </row>
+    <row r="92" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A92" s="14">
+        <v>91</v>
+      </c>
+      <c r="B92" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C92" s="16"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="17"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="14">
+        <v>92</v>
+      </c>
+      <c r="B93" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C93" s="16"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="17"/>
+    </row>
+    <row r="94" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A94" s="14">
+        <v>93</v>
+      </c>
+      <c r="B94" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C94" s="16"/>
+      <c r="D94" s="17"/>
+      <c r="E94" s="17"/>
+    </row>
+    <row r="95" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A95" s="14">
+        <v>94</v>
+      </c>
+      <c r="B95" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C95" s="16"/>
+      <c r="D95" s="17"/>
+      <c r="E95" s="17"/>
+    </row>
+    <row r="96" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A96" s="14">
+        <v>95</v>
+      </c>
+      <c r="B96" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C96" s="16"/>
+      <c r="D96" s="17"/>
+      <c r="E96" s="17"/>
+    </row>
+    <row r="97" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A97" s="14">
+        <v>96</v>
+      </c>
+      <c r="B97" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C97" s="16"/>
+      <c r="D97" s="17"/>
+      <c r="E97" s="17"/>
+    </row>
+    <row r="98" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A98" s="14">
+        <v>97</v>
+      </c>
+      <c r="B98" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C98" s="16"/>
+      <c r="D98" s="17"/>
+      <c r="E98" s="17"/>
+    </row>
+    <row r="99" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A99" s="14">
+        <v>98</v>
+      </c>
+      <c r="B99" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C99" s="16"/>
+      <c r="D99" s="17"/>
+      <c r="E99" s="17"/>
+    </row>
+    <row r="100" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A100" s="14">
+        <v>99</v>
+      </c>
+      <c r="B100" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C100" s="16"/>
+      <c r="D100" s="17"/>
+      <c r="E100" s="17"/>
+    </row>
+    <row r="101" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A101" s="14">
+        <v>100</v>
+      </c>
+      <c r="B101" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C101" s="16"/>
+      <c r="D101" s="17"/>
+      <c r="E101" s="17"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="14">
+        <v>101</v>
+      </c>
+      <c r="B102" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C102" s="16"/>
+      <c r="D102" s="17"/>
+      <c r="E102" s="17"/>
+    </row>
+    <row r="103" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A103" s="14">
+        <v>102</v>
+      </c>
+      <c r="B103" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C103" s="16"/>
+      <c r="D103" s="17"/>
+      <c r="E103" s="17"/>
+    </row>
+    <row r="104" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A104" s="14">
+        <v>103</v>
+      </c>
+      <c r="B104" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C104" s="16"/>
+      <c r="D104" s="17"/>
+      <c r="E104" s="17"/>
+    </row>
+    <row r="105" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A105" s="14">
+        <v>104</v>
+      </c>
+      <c r="B105" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C105" s="16"/>
+      <c r="D105" s="17"/>
+      <c r="E105" s="17"/>
+    </row>
+    <row r="106" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A106" s="14">
+        <v>105</v>
+      </c>
+      <c r="B106" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C106" s="16"/>
+      <c r="D106" s="17"/>
+      <c r="E106" s="17"/>
+    </row>
+    <row r="107" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A107" s="14">
+        <v>106</v>
+      </c>
+      <c r="B107" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C107" s="16"/>
+      <c r="D107" s="17"/>
+      <c r="E107" s="17"/>
+    </row>
+    <row r="108" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A108" s="14">
+        <v>107</v>
+      </c>
+      <c r="B108" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C108" s="16"/>
+      <c r="D108" s="17"/>
+      <c r="E108" s="17"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="14">
+        <v>108</v>
+      </c>
+      <c r="B109" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C109" s="16"/>
+      <c r="D109" s="17"/>
+      <c r="E109" s="17"/>
+    </row>
+    <row r="110" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A110" s="14">
+        <v>109</v>
+      </c>
+      <c r="B110" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C110" s="16"/>
+      <c r="D110" s="17"/>
+      <c r="E110" s="17"/>
+    </row>
+    <row r="111" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A111" s="14">
+        <v>110</v>
+      </c>
+      <c r="B111" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C111" s="16"/>
+      <c r="D111" s="17"/>
+      <c r="E111" s="17"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="14">
+        <v>111</v>
+      </c>
+      <c r="B112" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C112" s="16"/>
+      <c r="D112" s="17"/>
+      <c r="E112" s="17"/>
+    </row>
+    <row r="113" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A113" s="14">
+        <v>112</v>
+      </c>
+      <c r="B113" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C113" s="16"/>
+      <c r="D113" s="17"/>
+      <c r="E113" s="17"/>
+    </row>
+    <row r="114" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A114" s="14">
+        <v>113</v>
+      </c>
+      <c r="B114" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C114" s="16"/>
+      <c r="D114" s="17"/>
+      <c r="E114" s="17"/>
+    </row>
+    <row r="115" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A115" s="14">
+        <v>114</v>
+      </c>
+      <c r="B115" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C115" s="16"/>
+      <c r="D115" s="17"/>
+      <c r="E115" s="17"/>
+    </row>
+    <row r="116" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A116" s="14">
+        <v>115</v>
+      </c>
+      <c r="B116" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C116" s="16"/>
+      <c r="D116" s="17"/>
+      <c r="E116" s="17"/>
+    </row>
+    <row r="117" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A117" s="14">
+        <v>116</v>
+      </c>
+      <c r="B117" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C117" s="16"/>
+      <c r="D117" s="17"/>
+      <c r="E117" s="17"/>
+    </row>
+    <row r="118" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A118" s="14">
+        <v>117</v>
+      </c>
+      <c r="B118" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C118" s="16"/>
+      <c r="D118" s="17"/>
+      <c r="E118" s="17"/>
+    </row>
+    <row r="119" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A119" s="14">
+        <v>118</v>
+      </c>
+      <c r="B119" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C119" s="16"/>
+      <c r="D119" s="17"/>
+      <c r="E119" s="17"/>
+    </row>
+    <row r="120" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A120" s="14">
+        <v>119</v>
+      </c>
+      <c r="B120" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C120" s="16"/>
+      <c r="D120" s="17"/>
+      <c r="E120" s="17"/>
+    </row>
+    <row r="121" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A121" s="14">
+        <v>120</v>
+      </c>
+      <c r="B121" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C121" s="16"/>
+      <c r="D121" s="17"/>
+      <c r="E121" s="17"/>
+    </row>
+    <row r="122" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A122" s="14">
+        <v>121</v>
+      </c>
+      <c r="B122" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C122" s="16"/>
+      <c r="D122" s="17"/>
+      <c r="E122" s="17"/>
+    </row>
+    <row r="123" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A123" s="14">
+        <v>122</v>
+      </c>
+      <c r="B123" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C123" s="16"/>
+      <c r="D123" s="17"/>
+      <c r="E123" s="17"/>
+    </row>
+    <row r="124" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A124" s="14">
+        <v>123</v>
+      </c>
+      <c r="B124" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C124" s="16"/>
+      <c r="D124" s="17"/>
+      <c r="E124" s="17"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="14">
+        <v>124</v>
+      </c>
+      <c r="B125" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C125" s="16"/>
+      <c r="D125" s="17"/>
+      <c r="E125" s="17"/>
+    </row>
+    <row r="126" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A126" s="14">
+        <v>125</v>
+      </c>
+      <c r="B126" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C126" s="16"/>
+      <c r="D126" s="17"/>
+      <c r="E126" s="17"/>
+    </row>
+    <row r="127" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A127" s="14">
+        <v>126</v>
+      </c>
+      <c r="B127" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C127" s="16"/>
+      <c r="D127" s="17"/>
+      <c r="E127" s="17"/>
+    </row>
+    <row r="128" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A128" s="14">
+        <v>127</v>
+      </c>
+      <c r="B128" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C128" s="16"/>
+      <c r="D128" s="17"/>
+      <c r="E128" s="17"/>
+    </row>
+    <row r="129" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A129" s="14">
+        <v>128</v>
+      </c>
+      <c r="B129" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C129" s="16"/>
+      <c r="D129" s="17"/>
+      <c r="E129" s="17"/>
+    </row>
+    <row r="130" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A130" s="14">
+        <v>129</v>
+      </c>
+      <c r="B130" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C130" s="16"/>
+      <c r="D130" s="17"/>
+      <c r="E130" s="17"/>
+    </row>
+    <row r="131" spans="1:5" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A131" s="14">
+        <v>130</v>
+      </c>
+      <c r="B131" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C131" s="16"/>
+      <c r="D131" s="17"/>
+      <c r="E131" s="17"/>
+    </row>
+    <row r="132" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A132" s="14">
+        <v>131</v>
+      </c>
+      <c r="B132" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C132" s="16"/>
+      <c r="D132" s="17"/>
+      <c r="E132" s="17"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="14">
+        <v>132</v>
+      </c>
+      <c r="B133" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C133" s="16"/>
+      <c r="D133" s="17"/>
+      <c r="E133" s="17"/>
+    </row>
+    <row r="134" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A134" s="14">
+        <v>133</v>
+      </c>
+      <c r="B134" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C134" s="16"/>
+      <c r="D134" s="17"/>
+      <c r="E134" s="17"/>
+    </row>
+    <row r="135" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A135" s="14">
+        <v>134</v>
+      </c>
+      <c r="B135" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C135" s="16"/>
+      <c r="D135" s="17"/>
+      <c r="E135" s="17"/>
+    </row>
+    <row r="136" spans="1:5" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A136" s="14">
+        <v>135</v>
+      </c>
+      <c r="B136" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C136" s="16"/>
+      <c r="D136" s="17"/>
+      <c r="E136" s="17"/>
+    </row>
+    <row r="137" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A137" s="14">
+        <v>136</v>
+      </c>
+      <c r="B137" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C137" s="16"/>
+      <c r="D137" s="17"/>
+      <c r="E137" s="17"/>
+    </row>
+    <row r="138" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A138" s="14">
+        <v>137</v>
+      </c>
+      <c r="B138" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C138" s="16"/>
+      <c r="D138" s="17"/>
+      <c r="E138" s="17"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E138" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D138" xr:uid="{0816C524-C61D-4F80-AB7F-FD6DCA94A399}">
+      <formula1>",N/T,N/D,N/A,Falla,Pasa"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/plantillas/Anexo Informe Revision Accesibilidad - Sitios web.xlsx
+++ b/plantillas/Anexo Informe Revision Accesibilidad - Sitios web.xlsx
@@ -1,26 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\accesibilidad\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313ECF69-6A7A-4CEA-A516-D6B6E2FE304A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5365FC3A-AED7-44F0-B075-8E41BD1F1351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Procesos" sheetId="45" r:id="rId1"/>
     <sheet name="Comentarios" sheetId="48" r:id="rId2"/>
     <sheet name="Declaración" sheetId="47" r:id="rId3"/>
-    <sheet name="Informe Errores" sheetId="50" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Comentarios!$A$1:$I$138</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Informe Errores'!$A$1:$E$138</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Procesos!$A$1:$C$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -132,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="165">
   <si>
     <t>5.2 Activación de características de accesibilidad</t>
   </si>
@@ -638,15 +636,6 @@
   </si>
   <si>
     <t>Núm. Requisito en Tabla A.1 de la norma</t>
-  </si>
-  <si>
-    <t>Localización del problema (página/s de la muestra)</t>
-  </si>
-  <si>
-    <t>Propuesta de solución</t>
-  </si>
-  <si>
-    <t>Descripción del problema (opcional: capturas de pantalla)</t>
   </si>
 </sst>
 </file>
@@ -3416,7 +3405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -3499,1558 +3488,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D63651-BC04-43FA-961F-83A5E02B4F57}">
-  <dimension ref="A1:E138"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="38.44140625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.5546875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
-        <v>2</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-    </row>
-    <row r="4" spans="1:5" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
-        <v>3</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-    </row>
-    <row r="5" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
-        <v>4</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-    </row>
-    <row r="6" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
-        <v>5</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-    </row>
-    <row r="7" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
-        <v>6</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-    </row>
-    <row r="8" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
-        <v>7</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-    </row>
-    <row r="9" spans="1:5" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
-        <v>8</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-    </row>
-    <row r="10" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
-        <v>9</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-    </row>
-    <row r="11" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
-        <v>10</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
-        <v>11</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
-        <v>13</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
-        <v>14</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-    </row>
-    <row r="16" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
-        <v>15</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-    </row>
-    <row r="17" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A17" s="13">
-        <v>16</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-    </row>
-    <row r="18" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A18" s="14">
-        <v>17</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="14">
-        <v>18</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-    </row>
-    <row r="20" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A20" s="14">
-        <v>19</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-    </row>
-    <row r="21" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A21" s="14">
-        <v>20</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-    </row>
-    <row r="22" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A22" s="14">
-        <v>21</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-    </row>
-    <row r="23" spans="1:5" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="14">
-        <v>22</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-    </row>
-    <row r="24" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A24" s="14">
-        <v>23</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-    </row>
-    <row r="25" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A25" s="14">
-        <v>24</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-    </row>
-    <row r="26" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A26" s="14">
-        <v>25</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-    </row>
-    <row r="27" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A27" s="14">
-        <v>26</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="14">
-        <v>27</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-    </row>
-    <row r="29" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A29" s="14">
-        <v>28</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-    </row>
-    <row r="30" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A30" s="14">
-        <v>29</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-    </row>
-    <row r="31" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A31" s="14">
-        <v>30</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-    </row>
-    <row r="32" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A32" s="14">
-        <v>31</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-    </row>
-    <row r="33" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A33" s="14">
-        <v>32</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-    </row>
-    <row r="34" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A34" s="14">
-        <v>33</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-    </row>
-    <row r="35" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A35" s="14">
-        <v>34</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-    </row>
-    <row r="36" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A36" s="14">
-        <v>35</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-    </row>
-    <row r="37" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A37" s="14">
-        <v>36</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-    </row>
-    <row r="38" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A38" s="14">
-        <v>37</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-    </row>
-    <row r="39" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A39" s="14">
-        <v>38</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="C39" s="16"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-    </row>
-    <row r="40" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A40" s="14">
-        <v>39</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="C40" s="16"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="14">
-        <v>40</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="C41" s="16"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-    </row>
-    <row r="42" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A42" s="14">
-        <v>41</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="C42" s="16"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="14">
-        <v>42</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="C43" s="16"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="14">
-        <v>43</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="C44" s="16"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-    </row>
-    <row r="45" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A45" s="14">
-        <v>44</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="C45" s="16"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-    </row>
-    <row r="46" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A46" s="14">
-        <v>45</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C46" s="16"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-    </row>
-    <row r="47" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A47" s="14">
-        <v>46</v>
-      </c>
-      <c r="B47" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-    </row>
-    <row r="48" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A48" s="14">
-        <v>47</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="C48" s="16"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-    </row>
-    <row r="49" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A49" s="14">
-        <v>48</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="C49" s="16"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-    </row>
-    <row r="50" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A50" s="14">
-        <v>49</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="C50" s="16"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-    </row>
-    <row r="51" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A51" s="14">
-        <v>50</v>
-      </c>
-      <c r="B51" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="C51" s="16"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="14">
-        <v>51</v>
-      </c>
-      <c r="B52" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="C52" s="16"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-    </row>
-    <row r="53" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A53" s="14">
-        <v>52</v>
-      </c>
-      <c r="B53" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="C53" s="16"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="14">
-        <v>53</v>
-      </c>
-      <c r="B54" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="C54" s="16"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="14">
-        <v>54</v>
-      </c>
-      <c r="B55" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="C55" s="16"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-    </row>
-    <row r="56" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A56" s="14">
-        <v>55</v>
-      </c>
-      <c r="B56" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="C56" s="16"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-    </row>
-    <row r="57" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A57" s="14">
-        <v>56</v>
-      </c>
-      <c r="B57" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="C57" s="16"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="14">
-        <v>57</v>
-      </c>
-      <c r="B58" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="C58" s="16"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-    </row>
-    <row r="59" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A59" s="14">
-        <v>58</v>
-      </c>
-      <c r="B59" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="C59" s="16"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="14">
-        <v>59</v>
-      </c>
-      <c r="B60" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="C60" s="16"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-    </row>
-    <row r="61" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A61" s="14">
-        <v>60</v>
-      </c>
-      <c r="B61" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="C61" s="16"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="14">
-        <v>61</v>
-      </c>
-      <c r="B62" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="C62" s="16"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
-    </row>
-    <row r="63" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A63" s="14">
-        <v>62</v>
-      </c>
-      <c r="B63" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C63" s="16"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="14">
-        <v>63</v>
-      </c>
-      <c r="B64" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="C64" s="16"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
-    </row>
-    <row r="65" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A65" s="14">
-        <v>64</v>
-      </c>
-      <c r="B65" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="C65" s="16"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17"/>
-    </row>
-    <row r="66" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A66" s="14">
-        <v>65</v>
-      </c>
-      <c r="B66" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="C66" s="16"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
-    </row>
-    <row r="67" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A67" s="14">
-        <v>66</v>
-      </c>
-      <c r="B67" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="C67" s="16"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="17"/>
-    </row>
-    <row r="68" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A68" s="14">
-        <v>67</v>
-      </c>
-      <c r="B68" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="C68" s="16"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="17"/>
-    </row>
-    <row r="69" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A69" s="14">
-        <v>68</v>
-      </c>
-      <c r="B69" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="C69" s="16"/>
-      <c r="D69" s="17"/>
-      <c r="E69" s="17"/>
-    </row>
-    <row r="70" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A70" s="14">
-        <v>69</v>
-      </c>
-      <c r="B70" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="C70" s="16"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="14">
-        <v>70</v>
-      </c>
-      <c r="B71" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="C71" s="16"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="17"/>
-    </row>
-    <row r="72" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A72" s="14">
-        <v>71</v>
-      </c>
-      <c r="B72" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="C72" s="16"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="17"/>
-    </row>
-    <row r="73" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A73" s="14">
-        <v>72</v>
-      </c>
-      <c r="B73" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="C73" s="16"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="17"/>
-    </row>
-    <row r="74" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A74" s="14">
-        <v>73</v>
-      </c>
-      <c r="B74" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="C74" s="16"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
-    </row>
-    <row r="75" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A75" s="14">
-        <v>74</v>
-      </c>
-      <c r="B75" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="C75" s="16"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="17"/>
-    </row>
-    <row r="76" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A76" s="14">
-        <v>75</v>
-      </c>
-      <c r="B76" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="C76" s="16"/>
-      <c r="D76" s="17"/>
-      <c r="E76" s="17"/>
-    </row>
-    <row r="77" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A77" s="14">
-        <v>76</v>
-      </c>
-      <c r="B77" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="C77" s="16"/>
-      <c r="D77" s="17"/>
-      <c r="E77" s="17"/>
-    </row>
-    <row r="78" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A78" s="14">
-        <v>77</v>
-      </c>
-      <c r="B78" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="C78" s="16"/>
-      <c r="D78" s="17"/>
-      <c r="E78" s="17"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="14">
-        <v>78</v>
-      </c>
-      <c r="B79" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="C79" s="16"/>
-      <c r="D79" s="17"/>
-      <c r="E79" s="17"/>
-    </row>
-    <row r="80" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A80" s="14">
-        <v>79</v>
-      </c>
-      <c r="B80" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="C80" s="16"/>
-      <c r="D80" s="17"/>
-      <c r="E80" s="17"/>
-    </row>
-    <row r="81" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A81" s="14">
-        <v>80</v>
-      </c>
-      <c r="B81" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="C81" s="16"/>
-      <c r="D81" s="17"/>
-      <c r="E81" s="17"/>
-    </row>
-    <row r="82" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A82" s="14">
-        <v>81</v>
-      </c>
-      <c r="B82" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="C82" s="16"/>
-      <c r="D82" s="17"/>
-      <c r="E82" s="17"/>
-    </row>
-    <row r="83" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A83" s="14">
-        <v>82</v>
-      </c>
-      <c r="B83" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C83" s="16"/>
-      <c r="D83" s="17"/>
-      <c r="E83" s="17"/>
-    </row>
-    <row r="84" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A84" s="14">
-        <v>83</v>
-      </c>
-      <c r="B84" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C84" s="16"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="17"/>
-    </row>
-    <row r="85" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A85" s="14">
-        <v>84</v>
-      </c>
-      <c r="B85" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C85" s="16"/>
-      <c r="D85" s="17"/>
-      <c r="E85" s="17"/>
-    </row>
-    <row r="86" spans="1:5" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A86" s="14">
-        <v>85</v>
-      </c>
-      <c r="B86" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C86" s="16"/>
-      <c r="D86" s="17"/>
-      <c r="E86" s="17"/>
-    </row>
-    <row r="87" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A87" s="14">
-        <v>86</v>
-      </c>
-      <c r="B87" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C87" s="16"/>
-      <c r="D87" s="17"/>
-      <c r="E87" s="17"/>
-    </row>
-    <row r="88" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A88" s="14">
-        <v>87</v>
-      </c>
-      <c r="B88" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C88" s="16"/>
-      <c r="D88" s="17"/>
-      <c r="E88" s="17"/>
-    </row>
-    <row r="89" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A89" s="14">
-        <v>88</v>
-      </c>
-      <c r="B89" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C89" s="16"/>
-      <c r="D89" s="17"/>
-      <c r="E89" s="17"/>
-    </row>
-    <row r="90" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A90" s="14">
-        <v>89</v>
-      </c>
-      <c r="B90" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C90" s="16"/>
-      <c r="D90" s="17"/>
-      <c r="E90" s="17"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="14">
-        <v>90</v>
-      </c>
-      <c r="B91" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C91" s="16"/>
-      <c r="D91" s="17"/>
-      <c r="E91" s="17"/>
-    </row>
-    <row r="92" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A92" s="14">
-        <v>91</v>
-      </c>
-      <c r="B92" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C92" s="16"/>
-      <c r="D92" s="17"/>
-      <c r="E92" s="17"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="14">
-        <v>92</v>
-      </c>
-      <c r="B93" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C93" s="16"/>
-      <c r="D93" s="17"/>
-      <c r="E93" s="17"/>
-    </row>
-    <row r="94" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A94" s="14">
-        <v>93</v>
-      </c>
-      <c r="B94" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C94" s="16"/>
-      <c r="D94" s="17"/>
-      <c r="E94" s="17"/>
-    </row>
-    <row r="95" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A95" s="14">
-        <v>94</v>
-      </c>
-      <c r="B95" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C95" s="16"/>
-      <c r="D95" s="17"/>
-      <c r="E95" s="17"/>
-    </row>
-    <row r="96" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A96" s="14">
-        <v>95</v>
-      </c>
-      <c r="B96" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C96" s="16"/>
-      <c r="D96" s="17"/>
-      <c r="E96" s="17"/>
-    </row>
-    <row r="97" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A97" s="14">
-        <v>96</v>
-      </c>
-      <c r="B97" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C97" s="16"/>
-      <c r="D97" s="17"/>
-      <c r="E97" s="17"/>
-    </row>
-    <row r="98" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A98" s="14">
-        <v>97</v>
-      </c>
-      <c r="B98" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C98" s="16"/>
-      <c r="D98" s="17"/>
-      <c r="E98" s="17"/>
-    </row>
-    <row r="99" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A99" s="14">
-        <v>98</v>
-      </c>
-      <c r="B99" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C99" s="16"/>
-      <c r="D99" s="17"/>
-      <c r="E99" s="17"/>
-    </row>
-    <row r="100" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A100" s="14">
-        <v>99</v>
-      </c>
-      <c r="B100" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C100" s="16"/>
-      <c r="D100" s="17"/>
-      <c r="E100" s="17"/>
-    </row>
-    <row r="101" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A101" s="14">
-        <v>100</v>
-      </c>
-      <c r="B101" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C101" s="16"/>
-      <c r="D101" s="17"/>
-      <c r="E101" s="17"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="14">
-        <v>101</v>
-      </c>
-      <c r="B102" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C102" s="16"/>
-      <c r="D102" s="17"/>
-      <c r="E102" s="17"/>
-    </row>
-    <row r="103" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A103" s="14">
-        <v>102</v>
-      </c>
-      <c r="B103" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C103" s="16"/>
-      <c r="D103" s="17"/>
-      <c r="E103" s="17"/>
-    </row>
-    <row r="104" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A104" s="14">
-        <v>103</v>
-      </c>
-      <c r="B104" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C104" s="16"/>
-      <c r="D104" s="17"/>
-      <c r="E104" s="17"/>
-    </row>
-    <row r="105" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A105" s="14">
-        <v>104</v>
-      </c>
-      <c r="B105" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C105" s="16"/>
-      <c r="D105" s="17"/>
-      <c r="E105" s="17"/>
-    </row>
-    <row r="106" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A106" s="14">
-        <v>105</v>
-      </c>
-      <c r="B106" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C106" s="16"/>
-      <c r="D106" s="17"/>
-      <c r="E106" s="17"/>
-    </row>
-    <row r="107" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A107" s="14">
-        <v>106</v>
-      </c>
-      <c r="B107" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C107" s="16"/>
-      <c r="D107" s="17"/>
-      <c r="E107" s="17"/>
-    </row>
-    <row r="108" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A108" s="14">
-        <v>107</v>
-      </c>
-      <c r="B108" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C108" s="16"/>
-      <c r="D108" s="17"/>
-      <c r="E108" s="17"/>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="14">
-        <v>108</v>
-      </c>
-      <c r="B109" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C109" s="16"/>
-      <c r="D109" s="17"/>
-      <c r="E109" s="17"/>
-    </row>
-    <row r="110" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A110" s="14">
-        <v>109</v>
-      </c>
-      <c r="B110" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C110" s="16"/>
-      <c r="D110" s="17"/>
-      <c r="E110" s="17"/>
-    </row>
-    <row r="111" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A111" s="14">
-        <v>110</v>
-      </c>
-      <c r="B111" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C111" s="16"/>
-      <c r="D111" s="17"/>
-      <c r="E111" s="17"/>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="14">
-        <v>111</v>
-      </c>
-      <c r="B112" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C112" s="16"/>
-      <c r="D112" s="17"/>
-      <c r="E112" s="17"/>
-    </row>
-    <row r="113" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A113" s="14">
-        <v>112</v>
-      </c>
-      <c r="B113" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C113" s="16"/>
-      <c r="D113" s="17"/>
-      <c r="E113" s="17"/>
-    </row>
-    <row r="114" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A114" s="14">
-        <v>113</v>
-      </c>
-      <c r="B114" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C114" s="16"/>
-      <c r="D114" s="17"/>
-      <c r="E114" s="17"/>
-    </row>
-    <row r="115" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A115" s="14">
-        <v>114</v>
-      </c>
-      <c r="B115" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C115" s="16"/>
-      <c r="D115" s="17"/>
-      <c r="E115" s="17"/>
-    </row>
-    <row r="116" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A116" s="14">
-        <v>115</v>
-      </c>
-      <c r="B116" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C116" s="16"/>
-      <c r="D116" s="17"/>
-      <c r="E116" s="17"/>
-    </row>
-    <row r="117" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A117" s="14">
-        <v>116</v>
-      </c>
-      <c r="B117" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="C117" s="16"/>
-      <c r="D117" s="17"/>
-      <c r="E117" s="17"/>
-    </row>
-    <row r="118" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A118" s="14">
-        <v>117</v>
-      </c>
-      <c r="B118" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C118" s="16"/>
-      <c r="D118" s="17"/>
-      <c r="E118" s="17"/>
-    </row>
-    <row r="119" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A119" s="14">
-        <v>118</v>
-      </c>
-      <c r="B119" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C119" s="16"/>
-      <c r="D119" s="17"/>
-      <c r="E119" s="17"/>
-    </row>
-    <row r="120" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A120" s="14">
-        <v>119</v>
-      </c>
-      <c r="B120" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C120" s="16"/>
-      <c r="D120" s="17"/>
-      <c r="E120" s="17"/>
-    </row>
-    <row r="121" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A121" s="14">
-        <v>120</v>
-      </c>
-      <c r="B121" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C121" s="16"/>
-      <c r="D121" s="17"/>
-      <c r="E121" s="17"/>
-    </row>
-    <row r="122" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A122" s="14">
-        <v>121</v>
-      </c>
-      <c r="B122" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C122" s="16"/>
-      <c r="D122" s="17"/>
-      <c r="E122" s="17"/>
-    </row>
-    <row r="123" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A123" s="14">
-        <v>122</v>
-      </c>
-      <c r="B123" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C123" s="16"/>
-      <c r="D123" s="17"/>
-      <c r="E123" s="17"/>
-    </row>
-    <row r="124" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A124" s="14">
-        <v>123</v>
-      </c>
-      <c r="B124" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C124" s="16"/>
-      <c r="D124" s="17"/>
-      <c r="E124" s="17"/>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="14">
-        <v>124</v>
-      </c>
-      <c r="B125" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C125" s="16"/>
-      <c r="D125" s="17"/>
-      <c r="E125" s="17"/>
-    </row>
-    <row r="126" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A126" s="14">
-        <v>125</v>
-      </c>
-      <c r="B126" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C126" s="16"/>
-      <c r="D126" s="17"/>
-      <c r="E126" s="17"/>
-    </row>
-    <row r="127" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A127" s="14">
-        <v>126</v>
-      </c>
-      <c r="B127" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C127" s="16"/>
-      <c r="D127" s="17"/>
-      <c r="E127" s="17"/>
-    </row>
-    <row r="128" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A128" s="14">
-        <v>127</v>
-      </c>
-      <c r="B128" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C128" s="16"/>
-      <c r="D128" s="17"/>
-      <c r="E128" s="17"/>
-    </row>
-    <row r="129" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A129" s="14">
-        <v>128</v>
-      </c>
-      <c r="B129" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C129" s="16"/>
-      <c r="D129" s="17"/>
-      <c r="E129" s="17"/>
-    </row>
-    <row r="130" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A130" s="14">
-        <v>129</v>
-      </c>
-      <c r="B130" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C130" s="16"/>
-      <c r="D130" s="17"/>
-      <c r="E130" s="17"/>
-    </row>
-    <row r="131" spans="1:5" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A131" s="14">
-        <v>130</v>
-      </c>
-      <c r="B131" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C131" s="16"/>
-      <c r="D131" s="17"/>
-      <c r="E131" s="17"/>
-    </row>
-    <row r="132" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A132" s="14">
-        <v>131</v>
-      </c>
-      <c r="B132" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C132" s="16"/>
-      <c r="D132" s="17"/>
-      <c r="E132" s="17"/>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="14">
-        <v>132</v>
-      </c>
-      <c r="B133" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C133" s="16"/>
-      <c r="D133" s="17"/>
-      <c r="E133" s="17"/>
-    </row>
-    <row r="134" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A134" s="14">
-        <v>133</v>
-      </c>
-      <c r="B134" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C134" s="16"/>
-      <c r="D134" s="17"/>
-      <c r="E134" s="17"/>
-    </row>
-    <row r="135" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A135" s="14">
-        <v>134</v>
-      </c>
-      <c r="B135" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C135" s="16"/>
-      <c r="D135" s="17"/>
-      <c r="E135" s="17"/>
-    </row>
-    <row r="136" spans="1:5" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A136" s="14">
-        <v>135</v>
-      </c>
-      <c r="B136" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C136" s="16"/>
-      <c r="D136" s="17"/>
-      <c r="E136" s="17"/>
-    </row>
-    <row r="137" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A137" s="14">
-        <v>136</v>
-      </c>
-      <c r="B137" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C137" s="16"/>
-      <c r="D137" s="17"/>
-      <c r="E137" s="17"/>
-    </row>
-    <row r="138" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A138" s="14">
-        <v>137</v>
-      </c>
-      <c r="B138" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C138" s="16"/>
-      <c r="D138" s="17"/>
-      <c r="E138" s="17"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:E138" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D138" xr:uid="{0816C524-C61D-4F80-AB7F-FD6DCA94A399}">
-      <formula1>",N/T,N/D,N/A,Falla,Pasa"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>